--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Matn1-Itga1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Matn1-Itga1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>Matn1</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.618920476286546</v>
+        <v>0.3344773333333333</v>
       </c>
       <c r="H2">
-        <v>0.618920476286546</v>
+        <v>1.003432</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.2948820465348644</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.2948820465348644</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>43.3312160282181</v>
+        <v>46.85312199999999</v>
       </c>
       <c r="N2">
-        <v>43.3312160282181</v>
+        <v>140.559366</v>
       </c>
       <c r="O2">
-        <v>0.6521342183754182</v>
+        <v>0.6250615697984292</v>
       </c>
       <c r="P2">
-        <v>0.6521342183754182</v>
+        <v>0.6250615697984292</v>
       </c>
       <c r="Q2">
-        <v>26.81857686225996</v>
+        <v>15.67130730490133</v>
       </c>
       <c r="R2">
-        <v>26.81857686225996</v>
+        <v>141.041765744112</v>
       </c>
       <c r="S2">
-        <v>0.6521342183754182</v>
+        <v>0.1843194349124558</v>
       </c>
       <c r="T2">
-        <v>0.6521342183754182</v>
+        <v>0.1843194349124558</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.618920476286546</v>
+        <v>0.3344773333333333</v>
       </c>
       <c r="H3">
-        <v>0.618920476286546</v>
+        <v>1.003432</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.2948820465348644</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.2948820465348644</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.92098964314601</v>
+        <v>2.924192</v>
       </c>
       <c r="N3">
-        <v>2.92098964314601</v>
+        <v>8.772575999999999</v>
       </c>
       <c r="O3">
-        <v>0.04396085483904313</v>
+        <v>0.03901127531932681</v>
       </c>
       <c r="P3">
-        <v>0.04396085483904313</v>
+        <v>0.03901127531932681</v>
       </c>
       <c r="Q3">
-        <v>1.807860301163996</v>
+        <v>0.9780759423146667</v>
       </c>
       <c r="R3">
-        <v>1.807860301163996</v>
+        <v>8.802683480832</v>
       </c>
       <c r="S3">
-        <v>0.04396085483904313</v>
+        <v>0.01150372470409814</v>
       </c>
       <c r="T3">
-        <v>0.04396085483904313</v>
+        <v>0.01150372470409814</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.618920476286546</v>
+        <v>0.3344773333333333</v>
       </c>
       <c r="H4">
-        <v>0.618920476286546</v>
+        <v>1.003432</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.2948820465348644</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.2948820465348644</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.545116597798324</v>
+        <v>3.111826333333333</v>
       </c>
       <c r="N4">
-        <v>0.545116597798324</v>
+        <v>9.335478999999999</v>
       </c>
       <c r="O4">
-        <v>0.008203997464487866</v>
+        <v>0.04151448120903071</v>
       </c>
       <c r="P4">
-        <v>0.008203997464487866</v>
+        <v>0.04151448120903071</v>
       </c>
       <c r="Q4">
-        <v>0.3373838243410403</v>
+        <v>1.040835373769778</v>
       </c>
       <c r="R4">
-        <v>0.3373838243410403</v>
+        <v>9.367518363928001</v>
       </c>
       <c r="S4">
-        <v>0.008203997464487866</v>
+        <v>0.01224187517975215</v>
       </c>
       <c r="T4">
-        <v>0.008203997464487866</v>
+        <v>0.01224187517975215</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,929 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.3344773333333333</v>
+      </c>
+      <c r="H5">
+        <v>1.003432</v>
+      </c>
+      <c r="I5">
+        <v>0.2948820465348644</v>
+      </c>
+      <c r="J5">
+        <v>0.2948820465348644</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.2871186666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.861356</v>
+      </c>
+      <c r="O5">
+        <v>0.003830413787689508</v>
+      </c>
+      <c r="P5">
+        <v>0.003830413787689508</v>
+      </c>
+      <c r="Q5">
+        <v>0.0960346859768889</v>
+      </c>
+      <c r="R5">
+        <v>0.8643121737920001</v>
+      </c>
+      <c r="S5">
+        <v>0.001129520256789244</v>
+      </c>
+      <c r="T5">
+        <v>0.001129520256789244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.3344773333333333</v>
+      </c>
+      <c r="H6">
+        <v>1.003432</v>
+      </c>
+      <c r="I6">
+        <v>0.2948820465348644</v>
+      </c>
+      <c r="J6">
+        <v>0.2948820465348644</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.5945973333333333</v>
+      </c>
+      <c r="N6">
+        <v>1.783792</v>
+      </c>
+      <c r="O6">
+        <v>0.007932447758151382</v>
+      </c>
+      <c r="P6">
+        <v>0.007932447758151382</v>
+      </c>
+      <c r="Q6">
+        <v>0.1988793304604445</v>
+      </c>
+      <c r="R6">
+        <v>1.789913974144</v>
+      </c>
+      <c r="S6">
+        <v>0.002339136428954577</v>
+      </c>
+      <c r="T6">
+        <v>0.002339136428954577</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.3344773333333333</v>
+      </c>
+      <c r="H7">
+        <v>1.003432</v>
+      </c>
+      <c r="I7">
+        <v>0.2948820465348644</v>
+      </c>
+      <c r="J7">
+        <v>0.2948820465348644</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>21.18675466666667</v>
+      </c>
+      <c r="N7">
+        <v>63.560264</v>
+      </c>
+      <c r="O7">
+        <v>0.2826498121273726</v>
+      </c>
+      <c r="P7">
+        <v>0.2826498121273725</v>
+      </c>
+      <c r="Q7">
+        <v>7.086489202894223</v>
+      </c>
+      <c r="R7">
+        <v>63.77840282604801</v>
+      </c>
+      <c r="S7">
+        <v>0.08334835505281454</v>
+      </c>
+      <c r="T7">
+        <v>0.08334835505281454</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.6367003333333333</v>
+      </c>
+      <c r="H8">
+        <v>1.910101</v>
+      </c>
+      <c r="I8">
+        <v>0.561328014223476</v>
+      </c>
+      <c r="J8">
+        <v>0.5613280142234761</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>46.85312199999999</v>
+      </c>
+      <c r="N8">
+        <v>140.559366</v>
+      </c>
+      <c r="O8">
+        <v>0.6250615697984292</v>
+      </c>
+      <c r="P8">
+        <v>0.6250615697984292</v>
+      </c>
+      <c r="Q8">
+        <v>29.83139839510733</v>
+      </c>
+      <c r="R8">
+        <v>268.482585555966</v>
+      </c>
+      <c r="S8">
+        <v>0.3508645697423609</v>
+      </c>
+      <c r="T8">
+        <v>0.350864569742361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>26</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.618920476286546</v>
-      </c>
-      <c r="H5">
-        <v>0.618920476286546</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>19.6479198409109</v>
-      </c>
-      <c r="N5">
-        <v>19.6479198409109</v>
-      </c>
-      <c r="O5">
-        <v>0.2957009293210507</v>
-      </c>
-      <c r="P5">
-        <v>0.2957009293210507</v>
-      </c>
-      <c r="Q5">
-        <v>12.16049990597645</v>
-      </c>
-      <c r="R5">
-        <v>12.16049990597645</v>
-      </c>
-      <c r="S5">
-        <v>0.2957009293210507</v>
-      </c>
-      <c r="T5">
-        <v>0.2957009293210507</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.6367003333333333</v>
+      </c>
+      <c r="H9">
+        <v>1.910101</v>
+      </c>
+      <c r="I9">
+        <v>0.561328014223476</v>
+      </c>
+      <c r="J9">
+        <v>0.5613280142234761</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.924192</v>
+      </c>
+      <c r="N9">
+        <v>8.772575999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.03901127531932681</v>
+      </c>
+      <c r="P9">
+        <v>0.03901127531932681</v>
+      </c>
+      <c r="Q9">
+        <v>1.861834021130666</v>
+      </c>
+      <c r="R9">
+        <v>16.756506190176</v>
+      </c>
+      <c r="S9">
+        <v>0.02189812170732302</v>
+      </c>
+      <c r="T9">
+        <v>0.02189812170732302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.6367003333333333</v>
+      </c>
+      <c r="H10">
+        <v>1.910101</v>
+      </c>
+      <c r="I10">
+        <v>0.561328014223476</v>
+      </c>
+      <c r="J10">
+        <v>0.5613280142234761</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>3.111826333333333</v>
+      </c>
+      <c r="N10">
+        <v>9.335478999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.04151448120903071</v>
+      </c>
+      <c r="P10">
+        <v>0.04151448120903071</v>
+      </c>
+      <c r="Q10">
+        <v>1.981300863708778</v>
+      </c>
+      <c r="R10">
+        <v>17.831707773379</v>
+      </c>
+      <c r="S10">
+        <v>0.02330324129858302</v>
+      </c>
+      <c r="T10">
+        <v>0.02330324129858302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.6367003333333333</v>
+      </c>
+      <c r="H11">
+        <v>1.910101</v>
+      </c>
+      <c r="I11">
+        <v>0.561328014223476</v>
+      </c>
+      <c r="J11">
+        <v>0.5613280142234761</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.2871186666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.861356</v>
+      </c>
+      <c r="O11">
+        <v>0.003830413787689508</v>
+      </c>
+      <c r="P11">
+        <v>0.003830413787689508</v>
+      </c>
+      <c r="Q11">
+        <v>0.1828085507728889</v>
+      </c>
+      <c r="R11">
+        <v>1.645276956956</v>
+      </c>
+      <c r="S11">
+        <v>0.002150118565097975</v>
+      </c>
+      <c r="T11">
+        <v>0.002150118565097975</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.6367003333333333</v>
+      </c>
+      <c r="H12">
+        <v>1.910101</v>
+      </c>
+      <c r="I12">
+        <v>0.561328014223476</v>
+      </c>
+      <c r="J12">
+        <v>0.5613280142234761</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.5945973333333333</v>
+      </c>
+      <c r="N12">
+        <v>1.783792</v>
+      </c>
+      <c r="O12">
+        <v>0.007932447758151382</v>
+      </c>
+      <c r="P12">
+        <v>0.007932447758151382</v>
+      </c>
+      <c r="Q12">
+        <v>0.3785803203324444</v>
+      </c>
+      <c r="R12">
+        <v>3.407222882992</v>
+      </c>
+      <c r="S12">
+        <v>0.004452705148014579</v>
+      </c>
+      <c r="T12">
+        <v>0.00445270514801458</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.6367003333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.910101</v>
+      </c>
+      <c r="I13">
+        <v>0.561328014223476</v>
+      </c>
+      <c r="J13">
+        <v>0.5613280142234761</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>21.18675466666667</v>
+      </c>
+      <c r="N13">
+        <v>63.560264</v>
+      </c>
+      <c r="O13">
+        <v>0.2826498121273726</v>
+      </c>
+      <c r="P13">
+        <v>0.2826498121273725</v>
+      </c>
+      <c r="Q13">
+        <v>13.48961375851822</v>
+      </c>
+      <c r="R13">
+        <v>121.406523826664</v>
+      </c>
+      <c r="S13">
+        <v>0.1586592577620966</v>
+      </c>
+      <c r="T13">
+        <v>0.1586592577620966</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1630973333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.489292</v>
+      </c>
+      <c r="I14">
+        <v>0.1437899392416595</v>
+      </c>
+      <c r="J14">
+        <v>0.1437899392416595</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>46.85312199999999</v>
+      </c>
+      <c r="N14">
+        <v>140.559366</v>
+      </c>
+      <c r="O14">
+        <v>0.6250615697984292</v>
+      </c>
+      <c r="P14">
+        <v>0.6250615697984292</v>
+      </c>
+      <c r="Q14">
+        <v>7.641619256541333</v>
+      </c>
+      <c r="R14">
+        <v>68.77457330887199</v>
+      </c>
+      <c r="S14">
+        <v>0.08987756514361245</v>
+      </c>
+      <c r="T14">
+        <v>0.08987756514361245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1630973333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.489292</v>
+      </c>
+      <c r="I15">
+        <v>0.1437899392416595</v>
+      </c>
+      <c r="J15">
+        <v>0.1437899392416595</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.924192</v>
+      </c>
+      <c r="N15">
+        <v>8.772575999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.03901127531932681</v>
+      </c>
+      <c r="P15">
+        <v>0.03901127531932681</v>
+      </c>
+      <c r="Q15">
+        <v>0.4769279173546667</v>
+      </c>
+      <c r="R15">
+        <v>4.292351256191999</v>
+      </c>
+      <c r="S15">
+        <v>0.005609428907905653</v>
+      </c>
+      <c r="T15">
+        <v>0.005609428907905653</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1630973333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.489292</v>
+      </c>
+      <c r="I16">
+        <v>0.1437899392416595</v>
+      </c>
+      <c r="J16">
+        <v>0.1437899392416595</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>3.111826333333333</v>
+      </c>
+      <c r="N16">
+        <v>9.335478999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.04151448120903071</v>
+      </c>
+      <c r="P16">
+        <v>0.04151448120903071</v>
+      </c>
+      <c r="Q16">
+        <v>0.5075305767631111</v>
+      </c>
+      <c r="R16">
+        <v>4.567775190868</v>
+      </c>
+      <c r="S16">
+        <v>0.005969364730695541</v>
+      </c>
+      <c r="T16">
+        <v>0.005969364730695541</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1630973333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.489292</v>
+      </c>
+      <c r="I17">
+        <v>0.1437899392416595</v>
+      </c>
+      <c r="J17">
+        <v>0.1437899392416595</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.2871186666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.861356</v>
+      </c>
+      <c r="O17">
+        <v>0.003830413787689508</v>
+      </c>
+      <c r="P17">
+        <v>0.003830413787689508</v>
+      </c>
+      <c r="Q17">
+        <v>0.04682828888355556</v>
+      </c>
+      <c r="R17">
+        <v>0.421454599952</v>
+      </c>
+      <c r="S17">
+        <v>0.0005507749658022892</v>
+      </c>
+      <c r="T17">
+        <v>0.0005507749658022891</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.1630973333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.489292</v>
+      </c>
+      <c r="I18">
+        <v>0.1437899392416595</v>
+      </c>
+      <c r="J18">
+        <v>0.1437899392416595</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.5945973333333333</v>
+      </c>
+      <c r="N18">
+        <v>1.783792</v>
+      </c>
+      <c r="O18">
+        <v>0.007932447758151382</v>
+      </c>
+      <c r="P18">
+        <v>0.007932447758151382</v>
+      </c>
+      <c r="Q18">
+        <v>0.09697723947377777</v>
+      </c>
+      <c r="R18">
+        <v>0.872795155264</v>
+      </c>
+      <c r="S18">
+        <v>0.001140606181182225</v>
+      </c>
+      <c r="T18">
+        <v>0.001140606181182225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.1630973333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.489292</v>
+      </c>
+      <c r="I19">
+        <v>0.1437899392416595</v>
+      </c>
+      <c r="J19">
+        <v>0.1437899392416595</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>21.18675466666667</v>
+      </c>
+      <c r="N19">
+        <v>63.560264</v>
+      </c>
+      <c r="O19">
+        <v>0.2826498121273726</v>
+      </c>
+      <c r="P19">
+        <v>0.2826498121273725</v>
+      </c>
+      <c r="Q19">
+        <v>3.455503188120889</v>
+      </c>
+      <c r="R19">
+        <v>31.099528693088</v>
+      </c>
+      <c r="S19">
+        <v>0.04064219931246137</v>
+      </c>
+      <c r="T19">
+        <v>0.04064219931246137</v>
       </c>
     </row>
   </sheetData>
